--- a/biology/Botanique/Aloidendron/Aloidendron.xlsx
+++ b/biology/Botanique/Aloidendron/Aloidendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aloidendron est un genre de plantes succulentes de la sous-famille des Asphodeloideae. Il a été séparé du genre beaucoup plus grand Aloe en 2013[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aloidendron est un genre de plantes succulentes de la sous-famille des Asphodeloideae. Il a été séparé du genre beaucoup plus grand Aloe en 2013.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études phylogénétiques ont indiqué que plusieurs espèces qui étaient traditionnellement classées comme membres du genre Aloe étaient génétiquement distinctes et comprenaient un clade entièrement distinct. En 2013, l'espèce a donc été séparée en un genre distinct, Aloidendron, décision qui a été confirmée par Manning et al. en 2014[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études phylogénétiques ont indiqué que plusieurs espèces qui étaient traditionnellement classées comme membres du genre Aloe étaient génétiquement distinctes et comprenaient un clade entièrement distinct. En 2013, l'espèce a donc été séparée en un genre distinct, Aloidendron, décision qui a été confirmée par Manning et al. en 2014.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces dans le genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En octobre 2017, la World Checklist of Selected Plant Families classe dans la genre Aloidendron les espèces suivantes :
 Aloidendron barberae (Dyer) Klopper &amp; Gideon F.Sm.
@@ -580,16 +596,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 décembre 2019)[4] et Tropicos                                           (25 décembre 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 décembre 2019) et Tropicos                                           (25 décembre 2019) :
 Aloidendron barberae (Dyer) Klopper &amp; Gideon F.Sm.
 Aloidendron dichotomum (Masson) Klopper &amp; Gideon F.Sm.
 Aloidendron eminens (Reynolds &amp; P.R.O.Bally) Klopper &amp; Gideon F.Sm.
 Aloidendron pillansii (L.Guthrie) Klopper &amp; Gideon F.Sm.
 Aloidendron ramosissimum (Pillans) Klopper &amp; Gideon F.Sm.
 Aloidendron tongaense (Van Jaarsv.) Klopper &amp; Gideon F.Sm.
-Selon Catalogue of Life                                   (25 décembre 2019)[5], ITIS      (25 décembre 2019)[6] et World Checklist of Selected Plant Families (WCSP)  (25 décembre 2019)[7] :
+Selon Catalogue of Life                                   (25 décembre 2019), ITIS      (25 décembre 2019) et World Checklist of Selected Plant Families (WCSP)  (25 décembre 2019) :
 Aloidendron barberae (Dyer) Klopper &amp; Gideon F.Sm. (2013)
 Aloidendron dichotomum (Masson) Klopper &amp; Gideon F.Sm. (2013)
 Aloidendron eminens (Reynolds &amp; P.R.O.Bally) Klopper &amp; Gideon F.Sm. (2013)
